--- a/resources/generated_datasets/workflow_dataset/submission.xlsx
+++ b/resources/generated_datasets/workflow_dataset/submission.xlsx
@@ -122,9 +122,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-3446853483881611444" xfId="1" hidden="0"/>
-    <cellStyle name="-23803271536767568" xfId="2" hidden="0"/>
-    <cellStyle name="-5645950465781418482" xfId="3" hidden="0"/>
+    <cellStyle name="-5094407400293645900" xfId="1" hidden="0"/>
+    <cellStyle name="-4054223189609990819" xfId="2" hidden="0"/>
+    <cellStyle name="4025574942842726292" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
